--- a/Excel/TI/Mon_TI_2024_12_19.xlsx
+++ b/Excel/TI/Mon_TI_2024_12_19.xlsx
@@ -636,11 +636,7 @@
           <t>Karl-Anthony Towns</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>C</t>
@@ -648,16 +644,16 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>40.8</v>
+        <v>46.4</v>
       </c>
       <c r="G2" t="n">
-        <v>47.1</v>
+        <v>46.3</v>
       </c>
       <c r="H2" t="n">
-        <v>45.4</v>
+        <v>45.7</v>
       </c>
       <c r="I2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -669,24 +665,24 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="N2" t="n">
+        <v>49</v>
       </c>
       <c r="O2" t="n">
+        <v>42</v>
+      </c>
+      <c r="P2" t="n">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>33</v>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R2" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -774,7 +770,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.9</v>
+        <v>-0.3</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -782,68 +778,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Victor Wembanyama</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>38.6</v>
+        <v>42.6</v>
       </c>
       <c r="G3" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="H3" t="n">
-        <v>37.7</v>
+        <v>37.9</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O3" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P3" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>25</v>
-      </c>
-      <c r="R3" t="n">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -878,32 +878,32 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -913,16 +913,16 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
@@ -930,72 +930,68 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Victor Wembanyama</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>41.2</v>
+        <v>36.8</v>
       </c>
       <c r="G4" t="n">
-        <v>40.4</v>
+        <v>39.8</v>
       </c>
       <c r="H4" t="n">
-        <v>37.6</v>
+        <v>37</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>41</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>43</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20</v>
+      </c>
+      <c r="P4" t="n">
+        <v>32</v>
       </c>
       <c r="Q4" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="R4" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1030,32 +1026,32 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -1065,16 +1061,16 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
@@ -1082,12 +1078,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>De'Aaron Fox</t>
+          <t>Cade Cunningham</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -1098,43 +1094,43 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>30.6</v>
+        <v>40.8</v>
       </c>
       <c r="G5" t="n">
-        <v>40.1</v>
+        <v>38.5</v>
       </c>
       <c r="H5" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="P5" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="Q5" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="R5" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1143,65 +1139,67 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V5" t="n">
-        <v>39</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1211,7 +1209,7 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1220,7 +1218,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>3.6</v>
+        <v>-0.2</v>
       </c>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
@@ -1228,80 +1226,78 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alperen Sengun</t>
+          <t>De'Aaron Fox</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>36.8</v>
+        <v>28.4</v>
       </c>
       <c r="G6" t="n">
-        <v>38.6</v>
+        <v>38.1</v>
       </c>
       <c r="H6" t="n">
-        <v>35.6</v>
+        <v>36.4</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
         <v>2</v>
       </c>
-      <c r="M6" t="n">
-        <v>8</v>
-      </c>
       <c r="N6" t="n">
+        <v>38</v>
+      </c>
+      <c r="O6" t="n">
         <v>22</v>
       </c>
-      <c r="O6" t="n">
-        <v>29</v>
-      </c>
       <c r="P6" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>33</v>
+      </c>
+      <c r="R6" t="n">
+        <v>16</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
         <v>39</v>
       </c>
-      <c r="Q6" t="n">
-        <v>43</v>
-      </c>
-      <c r="R6" t="n">
-        <v>51</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="W6" t="inlineStr">
         <is>
           <t>-</t>
@@ -1324,42 +1320,42 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1368,7 +1364,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -1376,61 +1372,65 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cade Cunningham</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>41.6</v>
+        <v>32.8</v>
       </c>
       <c r="G7" t="n">
-        <v>37.5</v>
+        <v>38.1</v>
       </c>
       <c r="H7" t="n">
-        <v>37</v>
+        <v>38.1</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
       <c r="M7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="O7" t="n">
-        <v>45</v>
-      </c>
-      <c r="P7" t="n">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="R7" t="n">
-        <v>40</v>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1489,27 +1489,27 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>-1.3</v>
+        <v>-1.6</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
@@ -1542,43 +1542,45 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>43.2</v>
+        <v>39.4</v>
       </c>
       <c r="G8" t="n">
-        <v>37.3</v>
+        <v>37.8</v>
       </c>
       <c r="H8" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
+        <v>39</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
         <v>31</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>24</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>62</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>41</v>
-      </c>
-      <c r="R8" t="n">
-        <v>58</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1664,7 +1666,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -1672,83 +1674,79 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LeBron James</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Devin Booker</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>36.6</v>
       </c>
       <c r="G9" t="n">
-        <v>37.1</v>
+        <v>37.6</v>
       </c>
       <c r="H9" t="n">
-        <v>37.9</v>
+        <v>35.8</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
       <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>43</v>
       </c>
       <c r="O9" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="P9" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="R9" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>57</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1772,32 +1770,32 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1807,16 +1805,16 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>-1.5</v>
+        <v>-0.6</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -1824,38 +1822,38 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LaMelo Ball</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>32.6</v>
       </c>
       <c r="G10" t="n">
-        <v>35.3</v>
+        <v>37.3</v>
       </c>
       <c r="H10" t="n">
-        <v>37</v>
+        <v>33.4</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -1863,39 +1861,29 @@
       <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N10" t="n">
+        <v>48</v>
+      </c>
+      <c r="O10" t="n">
+        <v>23</v>
+      </c>
+      <c r="P10" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>26</v>
+      </c>
+      <c r="R10" t="n">
+        <v>25</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -1930,22 +1918,22 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -1955,7 +1943,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -1965,16 +1953,16 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -1982,59 +1970,63 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Devin Booker</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>Alperen Sengun</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>36</v>
+        <v>31.2</v>
       </c>
       <c r="G11" t="n">
-        <v>35.3</v>
+        <v>36.1</v>
       </c>
       <c r="H11" t="n">
-        <v>35</v>
+        <v>35.4</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="O11" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="P11" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="R11" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -2043,7 +2035,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -2078,12 +2070,12 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2093,17 +2085,17 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2113,7 +2105,7 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2122,7 +2114,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>-0.4</v>
+        <v>4.2</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
@@ -2130,12 +2122,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>LaMelo Ball</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -2146,45 +2138,51 @@
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>34.5</v>
+        <v>36</v>
       </c>
       <c r="H12" t="n">
-        <v>33.5</v>
+        <v>36.4</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>44</v>
-      </c>
-      <c r="O12" t="n">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>27</v>
-      </c>
-      <c r="R12" t="n">
-        <v>28</v>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -2193,16 +2191,18 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V12" t="n">
-        <v>27</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -2241,27 +2241,27 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>-2.6</v>
+        <v>1.7</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
@@ -2278,42 +2278,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Day-To-Day</t>
+          <t>Questionable</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>34.8</v>
+        <v>36.2</v>
       </c>
       <c r="G13" t="n">
-        <v>33.9</v>
+        <v>35.5</v>
       </c>
       <c r="H13" t="n">
-        <v>33.9</v>
+        <v>37.5</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
@@ -2321,110 +2321,110 @@
       <c r="M13" t="n">
         <v>3</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>58</v>
-      </c>
-      <c r="P13" t="n">
-        <v>6</v>
+      <c r="N13" t="n">
+        <v>27</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q13" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="R13" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>57</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
           <t>GSW</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>-3.5</v>
+        <v>-1.1</v>
       </c>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -2432,68 +2432,68 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Anthony Edwards</t>
+          <t>John Collins</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>27.2</v>
+        <v>31</v>
       </c>
       <c r="G14" t="n">
-        <v>33.3</v>
+        <v>34.7</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>31.7</v>
       </c>
       <c r="I14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>3</v>
       </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="O14" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P14" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q14" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="R14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -2553,26 +2553,26 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -2580,68 +2580,74 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>John Collins</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>Ja Morant</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>30.4</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="H15" t="n">
-        <v>31.7</v>
+        <v>33.8</v>
       </c>
       <c r="I15" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="O15" t="n">
-        <v>36</v>
-      </c>
-      <c r="P15" t="n">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q15" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="R15" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2681,46 +2687,46 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>-1</v>
+        <v>-1.7</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -2728,32 +2734,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jaren Jackson Jr.</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>33</v>
+        <v>32.4</v>
       </c>
       <c r="G16" t="n">
-        <v>32.7</v>
+        <v>33.2</v>
       </c>
       <c r="H16" t="n">
-        <v>32.5</v>
+        <v>33.4</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -2762,43 +2768,45 @@
         <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="O16" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="P16" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="Q16" t="n">
-        <v>21</v>
-      </c>
-      <c r="R16" t="n">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -2827,7 +2835,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2837,36 +2845,36 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
           <t>LAC</t>
         </is>
       </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>-2.2</v>
+        <v>-3.1</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -2874,61 +2882,59 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Jaren Jackson Jr.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>31.6</v>
+        <v>34.6</v>
       </c>
       <c r="G17" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="H17" t="n">
-        <v>33.4</v>
+        <v>32.8</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
         <v>3</v>
       </c>
-      <c r="K17" t="n">
-        <v>2</v>
-      </c>
       <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
         <v>3</v>
       </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
       <c r="N17" t="n">
+        <v>41</v>
+      </c>
+      <c r="O17" t="n">
         <v>33</v>
       </c>
-      <c r="O17" t="n">
-        <v>29</v>
-      </c>
       <c r="P17" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Q17" t="n">
-        <v>39</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>49</v>
+      </c>
+      <c r="R17" t="n">
+        <v>22</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2937,7 +2943,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2946,7 +2952,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -2975,17 +2981,17 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
@@ -2995,17 +3001,17 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
@@ -3014,7 +3020,7 @@
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>2.3</v>
+        <v>-2.3</v>
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
@@ -3022,60 +3028,60 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Anthony Edwards</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>38.6</v>
+        <v>33.2</v>
       </c>
       <c r="G18" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="H18" t="n">
-        <v>32.9</v>
+        <v>33.5</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="n">
-        <v>3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
       <c r="N18" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O18" t="n">
+        <v>23</v>
+      </c>
+      <c r="P18" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>48</v>
+      </c>
+      <c r="R18" t="n">
         <v>25</v>
       </c>
-      <c r="P18" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>62</v>
-      </c>
-      <c r="R18" t="n">
-        <v>36</v>
-      </c>
       <c r="S18" t="inlineStr">
         <is>
           <t>vs</t>
@@ -3083,7 +3089,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -3123,46 +3129,46 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
           <t>HOU</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
       <c r="AI18" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>9.1</v>
+        <v>-2</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
@@ -3175,58 +3181,54 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kristaps Porziņģis</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>31.8</v>
+        <v>27.8</v>
       </c>
       <c r="G19" t="n">
-        <v>31.8</v>
+        <v>31.3</v>
       </c>
       <c r="H19" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
         <v>2</v>
       </c>
-      <c r="L19" t="n">
-        <v>2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
       <c r="N19" t="n">
-        <v>25</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>27</v>
       </c>
       <c r="P19" t="n">
-        <v>41</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>29</v>
       </c>
       <c r="R19" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -3244,7 +3246,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -3312,7 +3314,7 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>-1.8</v>
+        <v>3</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
@@ -3320,147 +3322,151 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Michael Porter Jr.</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>Trae Young</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>31.2</v>
+        <v>35.6</v>
       </c>
       <c r="G20" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="H20" t="n">
-        <v>28.7</v>
+        <v>32.6</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
         <v>2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" t="n">
         <v>3</v>
       </c>
-      <c r="L20" t="n">
-        <v>6</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
+        <v>60</v>
+      </c>
+      <c r="O20" t="n">
+        <v>30</v>
+      </c>
+      <c r="P20" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>52</v>
+      </c>
+      <c r="R20" t="n">
+        <v>12</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AJ20" t="n">
         <v>2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>40</v>
-      </c>
-      <c r="O20" t="n">
-        <v>13</v>
-      </c>
-      <c r="P20" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>35</v>
-      </c>
-      <c r="R20" t="n">
-        <v>29</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0.9</v>
       </c>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
@@ -3468,12 +3474,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Zach LaVine</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -3484,43 +3490,43 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>29.4</v>
+        <v>32.2</v>
       </c>
       <c r="G21" t="n">
         <v>30.3</v>
       </c>
       <c r="H21" t="n">
-        <v>30.2</v>
+        <v>27.4</v>
       </c>
       <c r="I21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
         <v>4</v>
       </c>
-      <c r="L21" t="n">
-        <v>6</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
       <c r="N21" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O21" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="P21" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q21" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="R21" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -3529,84 +3535,86 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
           <t>BOS</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V21" t="n">
-        <v>31</v>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
       <c r="AI21" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>-0.7</v>
+        <v>-5</v>
       </c>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
@@ -3614,12 +3622,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cameron Johnson</t>
+          <t>Michael Porter Jr.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -3630,45 +3638,43 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>30.2</v>
+        <v>28.2</v>
       </c>
       <c r="G22" t="n">
-        <v>30.3</v>
+        <v>29.3</v>
       </c>
       <c r="H22" t="n">
-        <v>27.6</v>
+        <v>28.3</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" t="n">
         <v>3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="O22" t="n">
-        <v>35</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="P22" t="n">
+        <v>40</v>
       </c>
       <c r="Q22" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="R22" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -3677,7 +3683,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -3712,22 +3718,22 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
@@ -3737,7 +3743,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -3747,7 +3753,7 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
@@ -3756,7 +3762,7 @@
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>-2.1</v>
+        <v>0.8</v>
       </c>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
@@ -3764,12 +3770,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Trae Young</t>
+          <t>Zach LaVine</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3780,44 +3786,46 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>26.4</v>
       </c>
       <c r="G23" t="n">
-        <v>29.9</v>
+        <v>29.2</v>
       </c>
       <c r="H23" t="n">
-        <v>31.6</v>
+        <v>29.6</v>
       </c>
       <c r="I23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="n">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O23" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="P23" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="Q23" t="n">
+        <v>39</v>
+      </c>
+      <c r="R23" t="n">
         <v>20</v>
       </c>
-      <c r="R23" t="n">
-        <v>17</v>
-      </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>@</t>
@@ -3825,18 +3833,16 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>31</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -3865,7 +3871,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -3875,17 +3881,17 @@
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -3895,7 +3901,7 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
@@ -3904,7 +3910,7 @@
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>1.1</v>
+        <v>-0.1</v>
       </c>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
@@ -3912,68 +3918,70 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rudy Gobert</t>
+          <t>Cameron Johnson</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>31.4</v>
       </c>
       <c r="G24" t="n">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="H24" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="I24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
-        <v>7</v>
-      </c>
-      <c r="L24" t="n">
-        <v>6</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
       <c r="N24" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="O24" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="P24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q24" t="n">
-        <v>36</v>
-      </c>
-      <c r="R24" t="n">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -4013,7 +4021,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -4023,7 +4031,7 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -4033,26 +4041,26 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
@@ -4060,80 +4068,84 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Brandon Miller</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>Kristaps Porziņģis</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>32.4</v>
+        <v>28.8</v>
       </c>
       <c r="G25" t="n">
-        <v>27.3</v>
+        <v>29</v>
       </c>
       <c r="H25" t="n">
-        <v>25.8</v>
+        <v>29</v>
       </c>
       <c r="I25" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
+        <v>18</v>
+      </c>
+      <c r="O25" t="n">
+        <v>26</v>
+      </c>
+      <c r="P25" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>41</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
         <v>35</v>
       </c>
-      <c r="O25" t="n">
-        <v>23</v>
-      </c>
-      <c r="P25" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>36</v>
-      </c>
-      <c r="R25" t="n">
-        <v>34</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="W25" t="inlineStr">
         <is>
           <t>-</t>
@@ -4161,29 +4173,29 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
           <t>PHI</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
       <c r="AG25" t="inlineStr">
         <is>
           <t>vs</t>
@@ -4191,16 +4203,16 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>-2.2</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
@@ -4208,68 +4220,70 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Lauri Markkanen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>27.2</v>
+        <v>22.8</v>
       </c>
       <c r="G26" t="n">
-        <v>27</v>
+        <v>28.5</v>
       </c>
       <c r="H26" t="n">
-        <v>26.4</v>
+        <v>27.4</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O26" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="P26" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R26" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -4309,7 +4323,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -4319,17 +4333,17 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -4339,16 +4353,16 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>-2.3</v>
+        <v>-0.5</v>
       </c>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
@@ -4356,68 +4370,68 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Rudy Gobert</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="G27" t="n">
-        <v>26.9</v>
+        <v>27.7</v>
       </c>
       <c r="H27" t="n">
-        <v>26.3</v>
+        <v>27.6</v>
       </c>
       <c r="I27" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O27" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P27" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Q27" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="R27" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -4452,12 +4466,12 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -4467,17 +4481,17 @@
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -4487,16 +4501,16 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ27" t="n">
-        <v>-5.7</v>
+        <v>0.5</v>
       </c>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
@@ -4504,12 +4518,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lauri Markkanen</t>
+          <t>Brandon Miller</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -4520,13 +4534,13 @@
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>16.8</v>
+        <v>24.2</v>
       </c>
       <c r="G28" t="n">
-        <v>25.9</v>
+        <v>27.6</v>
       </c>
       <c r="H28" t="n">
-        <v>27.1</v>
+        <v>24.8</v>
       </c>
       <c r="I28" t="n">
         <v>12</v>
@@ -4535,30 +4549,28 @@
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
+        <v>4</v>
+      </c>
+      <c r="M28" t="n">
         <v>2</v>
       </c>
-      <c r="M28" t="n">
-        <v>3</v>
-      </c>
       <c r="N28" t="n">
-        <v>5</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="O28" t="n">
+        <v>13</v>
       </c>
       <c r="P28" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q28" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="R28" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -4567,7 +4579,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -4607,17 +4619,17 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
@@ -4627,7 +4639,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -4637,7 +4649,7 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
@@ -4646,7 +4658,7 @@
         </is>
       </c>
       <c r="AJ28" t="n">
-        <v>-0.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
@@ -4654,79 +4666,81 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
+          <t>Andrew Wiggins</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>22.4</v>
+        <v>27.2</v>
       </c>
       <c r="G29" t="n">
-        <v>25.6</v>
+        <v>27.3</v>
       </c>
       <c r="H29" t="n">
-        <v>23</v>
+        <v>25.8</v>
       </c>
       <c r="I29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
-        <v>39</v>
-      </c>
-      <c r="O29" t="n">
-        <v>19</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q29" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R29" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>14</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -4755,46 +4769,46 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ29" t="n">
-        <v>0.2</v>
+        <v>-1.6</v>
       </c>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
@@ -4802,65 +4816,67 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Day-To-Day</t>
+          <t>Questionable</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>25.6</v>
+        <v>27.2</v>
       </c>
       <c r="G30" t="n">
-        <v>25.4</v>
+        <v>27</v>
       </c>
       <c r="H30" t="n">
-        <v>22.7</v>
+        <v>26.4</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
         <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O30" t="n">
-        <v>14</v>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="Q30" t="n">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="R30" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -4869,7 +4885,7 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -4909,7 +4925,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -4919,17 +4935,17 @@
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -4939,7 +4955,7 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
@@ -4948,7 +4964,7 @@
         </is>
       </c>
       <c r="AJ30" t="n">
-        <v>2.3</v>
+        <v>-2.3</v>
       </c>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
@@ -4956,65 +4972,63 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Andrew Wiggins</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Jamal Murray</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>22.6</v>
+        <v>28.2</v>
       </c>
       <c r="G31" t="n">
-        <v>25.4</v>
+        <v>26.5</v>
       </c>
       <c r="H31" t="n">
-        <v>25</v>
+        <v>26.6</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
         <v>5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3</v>
       </c>
       <c r="L31" t="n">
         <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>34</v>
       </c>
       <c r="O31" t="n">
-        <v>13</v>
-      </c>
-      <c r="P31" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="R31" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -5023,16 +5037,18 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V31" t="n">
-        <v>14</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -5061,7 +5077,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -5071,27 +5087,27 @@
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
@@ -5100,7 +5116,7 @@
         </is>
       </c>
       <c r="AJ31" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
@@ -5108,12 +5124,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bradley Beal</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -5124,45 +5140,43 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>21.2</v>
+        <v>22.2</v>
       </c>
       <c r="G32" t="n">
-        <v>24.7</v>
+        <v>25.9</v>
       </c>
       <c r="H32" t="n">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O32" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P32" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="Q32" t="n">
-        <v>20</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -5171,7 +5185,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -5206,12 +5220,12 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -5221,17 +5235,17 @@
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -5241,7 +5255,7 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
@@ -5250,7 +5264,7 @@
         </is>
       </c>
       <c r="AJ32" t="n">
-        <v>-0.7</v>
+        <v>0.1</v>
       </c>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
@@ -5258,12 +5272,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Deni Avdija</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -5274,43 +5288,43 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>25.6</v>
+        <v>22.6</v>
       </c>
       <c r="G33" t="n">
-        <v>23.8</v>
+        <v>24.9</v>
       </c>
       <c r="H33" t="n">
-        <v>22.7</v>
+        <v>20.6</v>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O33" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="P33" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q33" t="n">
         <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -5319,77 +5333,77 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>PHX</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
@@ -5398,7 +5412,7 @@
         </is>
       </c>
       <c r="AJ33" t="n">
-        <v>-2.3</v>
+        <v>-1.4</v>
       </c>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
@@ -5406,69 +5420,59 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Miles Bridges</t>
+          <t>Dejounte Murray</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="G34" t="n">
-        <v>23.5</v>
+        <v>24.1</v>
       </c>
       <c r="H34" t="n">
-        <v>23.5</v>
+        <v>24.1</v>
       </c>
       <c r="I34" t="n">
+        <v>9</v>
+      </c>
+      <c r="J34" t="n">
         <v>3</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
+        <v>5</v>
+      </c>
+      <c r="L34" t="n">
         <v>0</v>
       </c>
-      <c r="K34" t="n">
-        <v>2</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N34" t="n">
+        <v>29</v>
+      </c>
+      <c r="O34" t="n">
+        <v>27</v>
+      </c>
+      <c r="P34" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>43</v>
+      </c>
+      <c r="R34" t="n">
+        <v>28</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -5477,7 +5481,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -5512,12 +5516,12 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -5527,19 +5531,19 @@
       </c>
       <c r="AD34" t="inlineStr">
         <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
           <t>HOU</t>
         </is>
       </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
       <c r="AG34" t="inlineStr">
         <is>
           <t>vs</t>
@@ -5547,7 +5551,7 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
@@ -5556,7 +5560,7 @@
         </is>
       </c>
       <c r="AJ34" t="n">
-        <v>2.3</v>
+        <v>-3.1</v>
       </c>
       <c r="AK34" t="inlineStr"/>
       <c r="AL34" t="inlineStr"/>
@@ -5564,59 +5568,65 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nic Claxton</t>
+          <t>Miles Bridges</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>25.6</v>
+        <v>28.8</v>
       </c>
       <c r="G35" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="H35" t="n">
-        <v>22.4</v>
+        <v>23.6</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="O35" t="n">
-        <v>30</v>
-      </c>
-      <c r="P35" t="n">
         <v>20</v>
       </c>
-      <c r="Q35" t="n">
-        <v>12</v>
-      </c>
-      <c r="R35" t="n">
-        <v>20</v>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -5625,7 +5635,7 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -5660,22 +5670,22 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
@@ -5685,7 +5695,7 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -5695,7 +5705,7 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
@@ -5704,7 +5714,7 @@
         </is>
       </c>
       <c r="AJ35" t="n">
-        <v>-2.3</v>
+        <v>1.2</v>
       </c>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
@@ -5712,68 +5722,74 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Dejounte Murray</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>Tobias Harris</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Probable</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="G36" t="n">
-        <v>23.1</v>
+        <v>22.5</v>
       </c>
       <c r="H36" t="n">
-        <v>23.1</v>
+        <v>22.5</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="n">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="O36" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="P36" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q36" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="R36" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
@@ -5808,51 +5824,51 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
           <t>DEN</t>
         </is>
       </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ36" t="n">
-        <v>-4.1</v>
+        <v>-2.1</v>
       </c>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
@@ -5860,35 +5876,35 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G37" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="H37" t="n">
-        <v>23</v>
+        <v>22.3</v>
       </c>
       <c r="I37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J37" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
         <v>2</v>
@@ -5897,22 +5913,24 @@
         <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>37</v>
-      </c>
-      <c r="O37" t="n">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="Q37" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R37" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -5921,7 +5939,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -5961,7 +5979,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -5971,7 +5989,7 @@
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
@@ -5981,17 +5999,17 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
@@ -6000,7 +6018,7 @@
         </is>
       </c>
       <c r="AJ37" t="n">
-        <v>-7.9</v>
+        <v>4.8</v>
       </c>
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
@@ -6008,59 +6026,61 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Deni Avdija</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>24.2</v>
+        <v>15.8</v>
       </c>
       <c r="G38" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="H38" t="n">
-        <v>19.8</v>
+        <v>21.1</v>
       </c>
       <c r="I38" t="n">
+        <v>10</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
         <v>14</v>
       </c>
-      <c r="J38" t="n">
-        <v>5</v>
-      </c>
-      <c r="K38" t="n">
-        <v>5</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>22</v>
-      </c>
-      <c r="O38" t="n">
-        <v>5</v>
-      </c>
-      <c r="P38" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>31</v>
-      </c>
       <c r="R38" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -6069,7 +6089,7 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
@@ -6109,7 +6129,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -6119,17 +6139,17 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
@@ -6139,7 +6159,7 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
@@ -6148,7 +6168,7 @@
         </is>
       </c>
       <c r="AJ38" t="n">
-        <v>-1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
@@ -6156,84 +6176,78 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Jonathan Kuminga</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>23.2</v>
+        <v>27.6</v>
       </c>
       <c r="G39" t="n">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="H39" t="n">
-        <v>21.4</v>
+        <v>19.9</v>
       </c>
       <c r="I39" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>33</v>
+      </c>
+      <c r="O39" t="n">
+        <v>20</v>
+      </c>
+      <c r="P39" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>10</v>
+      </c>
+      <c r="R39" t="n">
+        <v>46</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V39" t="n">
         <v>2</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O39" t="n">
-        <v>18</v>
-      </c>
-      <c r="P39" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>27</v>
-      </c>
-      <c r="R39" t="n">
-        <v>23</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="V39" t="n">
-        <v>26</v>
-      </c>
       <c r="W39" t="inlineStr">
         <is>
           <t>-</t>
@@ -6261,7 +6275,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
@@ -6271,36 +6285,36 @@
       </c>
       <c r="AD39" t="inlineStr">
         <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
           <t>LAC</t>
         </is>
       </c>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF39" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ39" t="n">
-        <v>-0.9</v>
+        <v>-1.7</v>
       </c>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
@@ -6308,59 +6322,59 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>17.6</v>
+        <v>23</v>
       </c>
       <c r="G40" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="H40" t="n">
-        <v>22.2</v>
+        <v>21.8</v>
       </c>
       <c r="I40" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J40" t="n">
+        <v>8</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
         <v>6</v>
       </c>
-      <c r="K40" t="n">
-        <v>5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="n">
-        <v>19</v>
-      </c>
       <c r="O40" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P40" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R40" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -6369,7 +6383,7 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
@@ -6409,7 +6423,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
@@ -6419,7 +6433,7 @@
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
@@ -6429,17 +6443,17 @@
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
@@ -6448,7 +6462,7 @@
         </is>
       </c>
       <c r="AJ40" t="n">
-        <v>5</v>
+        <v>-7.1</v>
       </c>
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
@@ -6456,65 +6470,59 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Nic Claxton</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>21.8</v>
+        <v>24.8</v>
       </c>
       <c r="G41" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="H41" t="n">
-        <v>19.2</v>
+        <v>21.6</v>
       </c>
       <c r="I41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
+        <v>3</v>
+      </c>
+      <c r="L41" t="n">
         <v>1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N41" t="n">
+        <v>16</v>
+      </c>
+      <c r="O41" t="n">
+        <v>12</v>
+      </c>
+      <c r="P41" t="n">
+        <v>46</v>
       </c>
       <c r="Q41" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -6523,7 +6531,7 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -6558,22 +6566,22 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
@@ -6583,7 +6591,7 @@
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -6593,7 +6601,7 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
@@ -6602,7 +6610,7 @@
         </is>
       </c>
       <c r="AJ41" t="n">
-        <v>0.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
@@ -6610,59 +6618,65 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>24.4</v>
+        <v>18.4</v>
       </c>
       <c r="G42" t="n">
-        <v>19.9</v>
+        <v>20.7</v>
       </c>
       <c r="H42" t="n">
-        <v>19.3</v>
+        <v>22.6</v>
       </c>
       <c r="I42" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O42" t="n">
-        <v>10</v>
-      </c>
-      <c r="P42" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q42" t="n">
         <v>26</v>
       </c>
-      <c r="R42" t="n">
-        <v>11</v>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -6671,7 +6685,7 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -6680,7 +6694,7 @@
         </is>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -6709,7 +6723,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
@@ -6719,27 +6733,27 @@
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
@@ -6748,7 +6762,7 @@
         </is>
       </c>
       <c r="AJ42" t="n">
-        <v>-1.3</v>
+        <v>-1.8</v>
       </c>
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr"/>
@@ -6756,18 +6770,18 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -6775,58 +6789,60 @@
         <v>27.6</v>
       </c>
       <c r="G43" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="H43" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="I43" t="n">
         <v>11</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="O43" t="n">
-        <v>32</v>
-      </c>
-      <c r="P43" t="n">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q43" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R43" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="V43" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -6855,7 +6871,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
@@ -6865,36 +6881,36 @@
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ43" t="n">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
@@ -6907,7 +6923,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dalton Knecht</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -6918,43 +6934,43 @@
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>6.4</v>
+        <v>24.6</v>
       </c>
       <c r="G44" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="H44" t="n">
-        <v>14.6</v>
+        <v>20.8</v>
       </c>
       <c r="I44" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J44" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O44" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="Q44" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="R44" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -6972,7 +6988,7 @@
         </is>
       </c>
       <c r="V44" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -7040,7 +7056,7 @@
         </is>
       </c>
       <c r="AJ44" t="n">
-        <v>-2.8</v>
+        <v>-1.3</v>
       </c>
       <c r="AK44" t="inlineStr"/>
       <c r="AL44" t="inlineStr"/>
@@ -7048,12 +7064,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>D'Angelo Russell</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -7064,45 +7080,43 @@
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>26.4</v>
+        <v>20.2</v>
       </c>
       <c r="G45" t="n">
-        <v>18.8</v>
+        <v>19.7</v>
       </c>
       <c r="H45" t="n">
-        <v>17.9</v>
+        <v>19.4</v>
       </c>
       <c r="I45" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
         <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="O45" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P45" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q45" t="n">
-        <v>33</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="R45" t="n">
+        <v>14</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -7111,16 +7125,18 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V45" t="n">
-        <v>27</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -7149,7 +7165,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -7159,7 +7175,7 @@
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
@@ -7169,7 +7185,7 @@
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
@@ -7179,7 +7195,7 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
@@ -7188,7 +7204,7 @@
         </is>
       </c>
       <c r="AJ45" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="AK45" t="inlineStr"/>
       <c r="AL45" t="inlineStr"/>
@@ -7212,46 +7228,44 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>16.2</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
-        <v>18.4</v>
+        <v>19.6</v>
       </c>
       <c r="H46" t="n">
-        <v>19.3</v>
+        <v>20.5</v>
       </c>
       <c r="I46" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
         <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
+        <v>21</v>
+      </c>
+      <c r="O46" t="n">
+        <v>47</v>
+      </c>
+      <c r="P46" t="n">
         <v>-7</v>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>29</v>
       </c>
-      <c r="P46" t="n">
+      <c r="R46" t="n">
         <v>20</v>
       </c>
-      <c r="Q46" t="n">
-        <v>27</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="S46" t="inlineStr">
         <is>
           <t>vs</t>
@@ -7338,7 +7352,7 @@
         </is>
       </c>
       <c r="AJ46" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AK46" t="inlineStr"/>
       <c r="AL46" t="inlineStr"/>
@@ -7346,42 +7360,38 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bogdan Bogdanović</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Dalton Knecht</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>19.8</v>
+        <v>8.4</v>
       </c>
       <c r="G47" t="n">
-        <v>15.3</v>
+        <v>17.7</v>
       </c>
       <c r="H47" t="n">
-        <v>15.3</v>
+        <v>14</v>
       </c>
       <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
         <v>9</v>
       </c>
-      <c r="J47" t="n">
-        <v>4</v>
-      </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -7389,24 +7399,20 @@
       <c r="M47" t="n">
         <v>0</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N47" t="n">
+        <v>4</v>
       </c>
       <c r="O47" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="P47" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="Q47" t="n">
-        <v>7</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -7415,18 +7421,16 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V47" t="n">
+        <v>10</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -7450,12 +7454,12 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -7465,17 +7469,17 @@
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
@@ -7485,7 +7489,7 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
@@ -7494,7 +7498,7 @@
         </is>
       </c>
       <c r="AJ47" t="n">
-        <v>0.9</v>
+        <v>-2.3</v>
       </c>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
@@ -7502,12 +7506,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -7518,64 +7522,62 @@
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>11.8</v>
+        <v>14.6</v>
       </c>
       <c r="G48" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H48" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11</v>
+      </c>
+      <c r="J48" t="n">
+        <v>7</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P48" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q48" t="n">
         <v>9</v>
       </c>
-      <c r="H48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I48" t="n">
-        <v>14</v>
-      </c>
-      <c r="J48" t="n">
-        <v>13</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>4</v>
-      </c>
-      <c r="O48" t="n">
-        <v>10</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q48" t="n">
+      <c r="R48" t="n">
+        <v>11</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V48" t="n">
         <v>27</v>
       </c>
-      <c r="R48" t="n">
-        <v>15</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="W48" t="inlineStr">
         <is>
           <t>-</t>
@@ -7598,51 +7600,51 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
           <t>GSW</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD48" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF48" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ48" t="n">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="AK48" t="inlineStr"/>
       <c r="AL48" t="inlineStr"/>
@@ -7650,42 +7652,38 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Paolo Banchero</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Bogdan Bogdanović</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>43.8</v>
+        <v>15.8</v>
       </c>
       <c r="G49" t="n">
-        <v>43.8</v>
+        <v>14.2</v>
       </c>
       <c r="H49" t="n">
-        <v>43.8</v>
+        <v>14.2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -7693,39 +7691,31 @@
       <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N49" t="n">
+        <v>14</v>
+      </c>
+      <c r="O49" t="n">
+        <v>4</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="Q49" t="n">
+        <v>25</v>
+      </c>
+      <c r="R49" t="n">
+        <v>29</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
@@ -7765,46 +7755,46 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
           <t>MIA</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD49" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="AE49" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF49" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="AG49" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AJ49" t="n">
-        <v>10.7</v>
+        <v>-0.1</v>
       </c>
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
@@ -7812,69 +7802,59 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
+          <t>Donte DiVincenzo</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>34</v>
+        <v>6.4</v>
       </c>
       <c r="G50" t="n">
-        <v>38.3</v>
+        <v>7.9</v>
       </c>
       <c r="H50" t="n">
-        <v>38.3</v>
+        <v>10.2</v>
       </c>
       <c r="I50" t="n">
+        <v>11</v>
+      </c>
+      <c r="J50" t="n">
+        <v>10</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>9</v>
+      </c>
+      <c r="O50" t="n">
+        <v>6</v>
+      </c>
+      <c r="P50" t="n">
         <v>4</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="Q50" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R50" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -7883,7 +7863,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -7923,7 +7903,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -7933,27 +7913,27 @@
       </c>
       <c r="AD50" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
@@ -7962,7 +7942,7 @@
         </is>
       </c>
       <c r="AJ50" t="n">
-        <v>-0.2</v>
+        <v>2.6</v>
       </c>
       <c r="AK50" t="inlineStr"/>
       <c r="AL50" t="inlineStr"/>
@@ -7970,12 +7950,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Zion Williamson</t>
+          <t>Paolo Banchero</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7990,13 +7970,13 @@
       </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>36.4</v>
+        <v>43.8</v>
       </c>
       <c r="G51" t="n">
-        <v>35.5</v>
+        <v>43.8</v>
       </c>
       <c r="H51" t="n">
-        <v>35.5</v>
+        <v>43.8</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -8040,12 +8020,12 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -8085,46 +8065,46 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
           <t>NYK</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF51" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ51" t="n">
-        <v>-9</v>
+        <v>10.7</v>
       </c>
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
@@ -8132,12 +8112,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Chet Holmgren</t>
+          <t>Zion Williamson</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -8147,24 +8127,24 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>24</v>
+        <v>36.4</v>
       </c>
       <c r="G52" t="n">
-        <v>30.1</v>
+        <v>35.5</v>
       </c>
       <c r="H52" t="n">
-        <v>30.1</v>
+        <v>35.5</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -8207,16 +8187,18 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V52" t="n">
-        <v>25</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -8240,12 +8222,12 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
@@ -8255,27 +8237,27 @@
       </c>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AE52" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
@@ -8284,7 +8266,7 @@
         </is>
       </c>
       <c r="AJ52" t="n">
-        <v>-1.5</v>
+        <v>-9</v>
       </c>
       <c r="AK52" t="inlineStr"/>
       <c r="AL52" t="inlineStr"/>
@@ -8292,12 +8274,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Cam Thomas</t>
+          <t>Chet Holmgren</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -8307,33 +8289,33 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>36.2</v>
+        <v>24</v>
       </c>
       <c r="G53" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="H53" t="n">
-        <v>31.1</v>
+        <v>30.1</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -8367,18 +8349,16 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="V53" t="n">
+        <v>25</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -8402,22 +8382,22 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="AE53" t="inlineStr">
@@ -8427,17 +8407,17 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr">
@@ -8446,7 +8426,7 @@
         </is>
       </c>
       <c r="AJ53" t="n">
-        <v>2.8</v>
+        <v>-1.5</v>
       </c>
       <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
@@ -8454,12 +8434,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Cam Thomas</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -8469,44 +8449,48 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>27.8</v>
+        <v>36.2</v>
       </c>
       <c r="G54" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="H54" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O54" t="n">
-        <v>8</v>
-      </c>
-      <c r="P54" t="n">
-        <v>44</v>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -8525,7 +8509,7 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
@@ -8565,27 +8549,27 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="AE54" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
@@ -8595,7 +8579,7 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="AI54" t="inlineStr">
@@ -8604,7 +8588,7 @@
         </is>
       </c>
       <c r="AJ54" t="n">
-        <v>-6.5</v>
+        <v>2.8</v>
       </c>
       <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
@@ -8612,12 +8596,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jamal Murray</t>
+          <t>Brandon Ingram</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -8627,30 +8611,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>29.6</v>
+        <v>27.8</v>
       </c>
       <c r="G55" t="n">
-        <v>26.1</v>
+        <v>29.3</v>
       </c>
       <c r="H55" t="n">
-        <v>26.1</v>
+        <v>29.9</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
@@ -8665,14 +8649,16 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P55" t="n">
-        <v>29</v>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q55" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="R55" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -8681,7 +8667,7 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
@@ -8716,12 +8702,12 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -8731,17 +8717,17 @@
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
@@ -8751,7 +8737,7 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr">
@@ -8760,7 +8746,7 @@
         </is>
       </c>
       <c r="AJ55" t="n">
-        <v>-0.2</v>
+        <v>-6.5</v>
       </c>
       <c r="AK55" t="inlineStr"/>
       <c r="AL55" t="inlineStr"/>
@@ -8768,12 +8754,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Bradley Beal</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -8788,25 +8774,25 @@
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>14</v>
+        <v>21.2</v>
       </c>
       <c r="G56" t="n">
-        <v>19.3</v>
+        <v>24.7</v>
       </c>
       <c r="H56" t="n">
-        <v>22.2</v>
+        <v>24.7</v>
       </c>
       <c r="I56" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -8821,38 +8807,34 @@
           <t>-</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="P56" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>12</v>
+      </c>
+      <c r="R56" t="n">
+        <v>28</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="V56" t="n">
-        <v>25</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -8876,32 +8858,32 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
@@ -8911,16 +8893,16 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="AJ56" t="n">
-        <v>-2</v>
+        <v>-0.7</v>
       </c>
       <c r="AK56" t="inlineStr"/>
       <c r="AL56" t="inlineStr"/>
@@ -8957,16 +8939,16 @@
         <v>18</v>
       </c>
       <c r="I57" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
